--- a/CDMO_Automation/00_Annual_Update/Reserve_Level_Template/figure_files/Reserve_Level_Plotting_Variables.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Reserve_Level_Template/figure_files/Reserve_Level_Plotting_Variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global_Decisions--&gt;" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="110">
   <si>
     <t xml:space="preserve">Flags</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include station labels on trend maps?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert wind speeds from m/s to mph?</t>
   </si>
   <si>
     <t xml:space="preserve">Parameter</t>
@@ -513,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF385724"/>
     <pageSetUpPr fitToPage="false"/>
@@ -521,14 +524,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="A12:B12 C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -537,17 +540,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="A12:B12 J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -556,49 +559,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -607,98 +610,98 @@
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0.1</v>
@@ -706,45 +709,45 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>20</v>
@@ -752,13 +755,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
@@ -766,13 +769,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0.1</v>
@@ -781,7 +784,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -790,17 +793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topLeft" activeCell="O10" activeCellId="1" sqref="A12:B12 O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
   </cols>
@@ -833,7 +836,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -842,17 +845,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="1" sqref="A12:B12 G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.45"/>
   </cols>
@@ -881,7 +884,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -890,17 +893,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="A12:B12 G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.44"/>
@@ -1116,7 +1119,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1125,17 +1128,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A12:B12 C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.19"/>
@@ -1243,7 +1246,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1252,17 +1255,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.11"/>
   </cols>
@@ -1355,10 +1358,18 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1367,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF385724"/>
     <pageSetUpPr fitToPage="false"/>
@@ -1375,14 +1386,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="A12:B12 G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1391,17 +1402,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="A12:B12 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1413,53 +1424,53 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>39</v>
@@ -1467,36 +1478,36 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>39</v>
@@ -1504,33 +1515,33 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>39</v>
@@ -1538,16 +1549,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>39</v>
@@ -1555,16 +1566,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>39</v>
@@ -1572,16 +1583,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>39</v>
@@ -1589,212 +1600,212 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1803,17 +1814,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="1" sqref="A12:B12 N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1826,57 +1837,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -1885,18 +1896,18 @@
         <v>0.95</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.05</v>
@@ -1905,18 +1916,18 @@
         <v>0.95</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -1925,22 +1936,22 @@
         <v>5</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>39</v>
@@ -1951,13 +1962,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.05</v>
@@ -1966,35 +1977,35 @@
         <v>0.95</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.05</v>
@@ -2003,18 +2014,18 @@
         <v>0.9</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.05</v>
@@ -2023,18 +2034,18 @@
         <v>0.95</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.05</v>
@@ -2043,18 +2054,18 @@
         <v>0.95</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.05</v>
@@ -2063,18 +2074,18 @@
         <v>0.95</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0.05</v>
@@ -2083,18 +2094,18 @@
         <v>0.95</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0.05</v>
@@ -2103,46 +2114,46 @@
         <v>0.95</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0.07</v>
@@ -2151,22 +2162,22 @@
         <v>0.1</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="I15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>39</v>
@@ -2177,13 +2188,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.05</v>
@@ -2192,18 +2203,18 @@
         <v>0.95</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.05</v>
@@ -2212,18 +2223,18 @@
         <v>0.95</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0.05</v>
@@ -2232,18 +2243,18 @@
         <v>0.95</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0.05</v>
@@ -2252,18 +2263,18 @@
         <v>0.95</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>5</v>
@@ -2272,22 +2283,22 @@
         <v>20</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="I20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>39</v>
@@ -2298,13 +2309,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.35</v>
@@ -2313,22 +2324,22 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="I21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>39</v>
@@ -2339,13 +2350,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0.07</v>
@@ -2354,22 +2365,22 @@
         <v>0.1</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="I22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>39</v>
@@ -2381,7 +2392,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/CDMO_Automation/00_Annual_Update/Reserve_Level_Template/figure_files/Reserve_Level_Plotting_Variables.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Reserve_Level_Template/figure_files/Reserve_Level_Plotting_Variables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global_Decisions--&gt;" sheetId="1" state="visible" r:id="rId2"/>
@@ -524,10 +524,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="A12:B12 C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -547,10 +547,10 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="A12:B12 J9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -797,13 +797,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="1" sqref="A12:B12 O10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
   </cols>
@@ -830,6 +830,11 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,11 +856,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="1" sqref="A12:B12 G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.45"/>
   </cols>
@@ -873,12 +878,12 @@
         <v>2007</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -899,11 +904,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="A12:B12 G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.44"/>
@@ -1135,10 +1140,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A12:B12 C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.19"/>
@@ -1261,11 +1266,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.11"/>
   </cols>
@@ -1386,10 +1391,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="A12:B12 G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1409,10 +1414,10 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="A12:B12 F10"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1456,7 +1461,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +1826,10 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="1" sqref="A12:B12 N7"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
